--- a/output/interest_rate_metrics.xlsx
+++ b/output/interest_rate_metrics.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
   <si>
     <t>区域</t>
   </si>
@@ -85,16 +85,22 @@
     <t>2025-07-31</t>
   </si>
   <si>
-    <t>2025-08-20</t>
-  </si>
-  <si>
-    <t>2025-08-29</t>
+    <t>2025-09-22</t>
+  </si>
+  <si>
+    <t>2025-10-13</t>
+  </si>
+  <si>
+    <t>2025-10-10</t>
   </si>
   <si>
     <t>2020-09 to 2025-09</t>
   </si>
   <si>
-    <t>2020-08 to 2025-08</t>
+    <t>2020-12 to 2025-09</t>
+  </si>
+  <si>
+    <t>2020-10 to 2025-10</t>
   </si>
 </sst>
 </file>
@@ -504,7 +510,7 @@
         <v>22</v>
       </c>
       <c r="F2">
-        <v>-5.3</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>-18.2</v>
@@ -513,7 +519,7 @@
         <v>3.18</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -539,10 +545,10 @@
         <v>-10.4</v>
       </c>
       <c r="H3">
-        <v>3.54</v>
+        <v>3.52</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -553,22 +559,22 @@
         <v>17</v>
       </c>
       <c r="D4">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="E4" t="s">
         <v>24</v>
       </c>
       <c r="F4">
-        <v>1.3</v>
+        <v>-3.6</v>
       </c>
       <c r="G4">
-        <v>-13.4</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -579,22 +585,22 @@
         <v>18</v>
       </c>
       <c r="D5">
-        <v>1.84</v>
+        <v>1.65</v>
       </c>
       <c r="E5" t="s">
         <v>24</v>
       </c>
       <c r="F5">
-        <v>17.2</v>
+        <v>5.5</v>
       </c>
       <c r="G5">
-        <v>-9.300000000000001</v>
+        <v>-13.3</v>
       </c>
       <c r="H5">
-        <v>2.75</v>
+        <v>2.71</v>
       </c>
       <c r="I5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -608,22 +614,22 @@
         <v>19</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="E6" t="s">
         <v>24</v>
       </c>
       <c r="F6">
-        <v>841.3</v>
+        <v>36.5</v>
       </c>
       <c r="G6">
-        <v>24.4</v>
+        <v>-22</v>
       </c>
       <c r="H6">
-        <v>2.43</v>
+        <v>2.56</v>
       </c>
       <c r="I6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -634,22 +640,22 @@
         <v>20</v>
       </c>
       <c r="D7">
-        <v>3.3</v>
+        <v>3.44</v>
       </c>
       <c r="E7" t="s">
         <v>24</v>
       </c>
       <c r="F7">
-        <v>219.3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G7">
-        <v>-16</v>
+        <v>-22.1</v>
       </c>
       <c r="H7">
-        <v>2.43</v>
+        <v>2.53</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -660,22 +666,22 @@
         <v>21</v>
       </c>
       <c r="D8">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F8">
-        <v>2.6</v>
+        <v>4.6</v>
       </c>
       <c r="G8">
-        <v>9.6</v>
+        <v>-25.5</v>
       </c>
       <c r="H8">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="I8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
